--- a/documentation.xlsx
+++ b/documentation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evanr\ultracam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A694324-C979-46E7-B656-FF8B1DD2A7A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42899655-B492-4DF2-9B6D-15AB0A70A101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2220" windowWidth="32205" windowHeight="17535" activeTab="1" xr2:uid="{9AFE52E4-F37E-4D1A-86F5-52861F632D65}"/>
+    <workbookView xWindow="38280" yWindow="3720" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{9AFE52E4-F37E-4D1A-86F5-52861F632D65}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$A$5</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Capture photos</t>
   </si>
@@ -105,16 +106,33 @@
   </si>
   <si>
     <t>XPE estimate tool</t>
+  </si>
+  <si>
+    <t>https://docs.amd.com/r/en-US/ug1449-multimedia/Document-Scope</t>
+  </si>
+  <si>
+    <t>https://adaptivesupport.amd.com/s/article/816533?language=en_US</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JCvymq16dfk&amp;t=1s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -137,13 +155,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -160,9 +181,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +221,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +327,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +469,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2747F0D-56B5-4AA5-BFC0-9778C4B8E705}">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -595,4 +616,38 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0975A2-5271-4692-AA75-1473BC1A6B22}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{9751CEF5-68A3-455C-A0C9-284BD08B0A23}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{32134AE5-CBB4-4349-9AA4-4B7773DF39FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>